--- a/database/relatorio/PE 90004-2024/ODONTOMED_CANAA_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/ODONTOMED_CANAA_LTDA/relacao_itens.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,768 +446,1193 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Forno cocção porcelana tensão: 110 ou 220 v (não é bivolt).* Consumo máximo: 1300 w.* Fusível: 20 a.* Tomada da bomba: 10 a. * temperatura máxima: 1200ºc.* Comprimento: 420 mm.* Largura: 298 mm.* Altura: 465 mm.* Peso líquido: 14,1 kg.* Peso bruto: 16,2 kg.* Frequência: 50-60 hz.* Cor: preto.</t>
+          <t>Forno cocção porcelana tensão: 110 ou 220 v (não é bivolt).* Consumo máximo: 1300 w.* Fusível: 20 a.* Tomada da bomba: 10 a. * temperatura máxima: 1200ºc.* Comprimento: 420 mm.* Largura: 298 mm.* Altura: 465 mm.* Peso líquido: 14,1 kg.* Peso bruto: 16,2 kg.* Frequência: 50-60 hz.* Cor: preto.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 16505.0</t>
+          <t>Marca:  Kota</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 33010.0</t>
+          <t>Modelo:  Pro N</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 16.505,00</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 33.010,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Item: 36 - INDICADOR QUÍMICO (332343)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Indicador químico, classe: classe i, tipo uso: externo, apresentação: fita adesiva, características adicionais: para esterilização a vapor</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 50.0</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 73.0</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 3650.0</t>
+          <t>Indicador químico, classe: classe i, tipo uso: externo, apresentação: fita adesiva, características adicionais: para esterilização a vapor</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Item: 39 - PINÇA ODONTOLÓGICA (413334)</t>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  Clean Up</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Indicador químico</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Jogo de pinças demarcadoras de crane kaplan confeccionado em aço inox, autoclavável, em embalagem plástica individual.</t>
+          <t>Quantidade: 50</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 73,00</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 3.650,00</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 2.0</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 71.9</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 143.8</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Item: 39 - PINÇA ODONTOLÓGICA (413334)</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Item: 54 - RESINA ACRÍLICA USO ODONTOLÓGICO (433636)</t>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Jogo de pinças demarcadoras de crane kaplan confeccionado em aço inox, autoclavável, em embalagem plástica individual.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Liquido monomero termopolimerizável / microondas /250ml/ tipo vipe wave, com 2 anos de validade.</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  Golgran</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Pinça kaplan</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 10.0</t>
+          <t>Quantidade: 2</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 110.0</t>
+          <t>Valor Unitário: R$ 71,90</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 1100.0</t>
+          <t>Valor Total: R$ 143,80</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 56 - PEÇA , ACESSÓRIO ILUMINAÇÃO (479471)</t>
+          <t>Item: 54 - RESINA ACRÍLICA USO ODONTOLÓGICO (433636)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Luminária kota para laboratório de prótese dentária, descanso visual e qualidade de visão, estrutura do corpo com material de alta resistência e que previne o aquecimento, cabeça em plast. de eng. Abs., favo de leds com proteção em acrílico, luz branca, braço com 3 articulações para posições variadas, intensidades variáveis, baixo consumo de energia, bivolt 127/220v. Dimensões aproximadas (a x c): 700 x 500 mm.</t>
+          <t>Liquido monomero termopolimerizável / microondas /250ml/ tipo vipe wave, com 2 anos de validade.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>UF: Frasco 250,00 ML</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 840.0</t>
+          <t>Marca:  Vip</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 1680.0</t>
+          <t>Modelo:  Ware</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Item: 66 - EQUIPAMENTO ODONTOLÓGICO (413691)</t>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 10</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 110,00</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 1.100,00</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Micro motor de bancada * utiliza micromotores e rolamentos blindados de alta tecnologia que dispensam a necessidade de lubrificação; * seleção automática 100v/ 230; * rotações: 0 a 35.000 rpm; * para brocas de 2,35 mm de diâmetro; * torque: 7nw.</t>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Item: 56 - PEÇA , ACESSÓRIO ILUMINAÇÃO (479471)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 1112.0</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 2224.0</t>
+          <t>Luminária kota para laboratório de prótese dentária, descanso visual e qualidade de visão, estrutura do corpo com material de alta resistência e que previne o aquecimento, cabeça em plast. de eng. Abs., favo de leds com proteção em acrílico, luz branca, braço com 3 articulações para posições variadas, intensidades variáveis, baixo consumo de energia, bivolt 127/220v. Dimensões aproximadas (a x c): 700 x 500 mm.</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Item: 68 - TORNO - USO ODONTOLOGICO (245848)</t>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  Kota</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Luminária</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Motor torno para polimento, alta velocidade: 3.500 rpm. * baixa velocidade: 1.725 rpm * frequência: 50/60 hz. * ponta de reposição: 3/8 reta. * potência do motor: ½ cv. * tensão: 110v ou 220v (não é bivolt).</t>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 840,00</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 1.680,00</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 2.0</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 678.0</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 1356.0</t>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Item: 66 - EQUIPAMENTO ODONTOLÓGICO (413691)</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Item: 70 - MUFLA ODONTOLÓGICA (446569)</t>
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Micro motor de bancada * utiliza micromotores e rolamentos blindados de alta tecnologia que dispensam a necessidade de lubrificação; * seleção automática 100v/ 230; * rotações: 0 a 35.000 rpm; * para brocas de 2,35 mm de diâmetro; * torque: 7nw.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Mufla para micro-ondas confeccionada em plástico de alta resistência. * excelente propriedade térmica. * sistema de aperto em aço inox com 4 parafusos. * acompanha chave allen. * composta por base, contra-mufla e disco para demuflagem. * referência mac dental: 29800. * validade: indeterminada. * garantia: em condições normais de uso o produto tem garantia integral de 90 dias pelo fabricante contra defeitos de materiais e fabricação.</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  Talmax</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Marathon</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>Quantidade: 2</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 225.0</t>
+          <t>Valor Unitário: R$ 1.112,00</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 450.0</t>
+          <t>Valor Total: R$ 2.224,00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Item: 78 - PASTA ABRASIVA (271377)</t>
+          <t>Item: 68 - TORNO - USO ODONTOLOGICO (245848)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Pasta diamantada para polimento de resina composta kit- acabamento / polimento / brilho.</t>
+          <t>Motor torno para polimento, alta velocidade: 3.500 rpm. * baixa velocidade: 1.725 rpm * frequência: 50/60 hz. * ponta de reposição: 3/8 reta. * potência do motor: ½ cv. * tensão: 110v ou 220v (não é bivolt).</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 20.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 19.32</t>
+          <t>Marca:  OGP</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 386.4</t>
+          <t>Modelo:  Torno de polimento</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Item: 87 - PINÇA CIRÚRGICA (467808)</t>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 678,00</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 1.356,00</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Pinça cirúrgica 1, material:aço inoxidável, modelo:kelly, tipo ponta: curva, comprimento:18 cm</t>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Item: 70 - MUFLA ODONTOLÓGICA (446569)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 20.0</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 44.9</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 898.0</t>
+          <t>Mufla para micro-ondas confeccionada em plástico de alta resistência. * excelente propriedade térmica. * sistema de aperto em aço inox com 4 parafusos. * acompanha chave allen. * composta por base, contra-mufla e disco para demuflagem. * referência mac dental: 29800. * validade: indeterminada. * garantia: em condições normais de uso o produto tem garantia integral de 90 dias pelo fabricante contra defeitos de materiais e fabricação.</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Item: 88 - PINÇA CIRÚRGICA (601006)</t>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  OGP</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Mufla</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Pinça cirúrgica 1, material:aço inoxidável, tipo ponta:ponta curva, comprimento:16 cm, modelo 1:rankin-kelly</t>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 225,00</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 450,00</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 50.0</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 41.0</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 2050.0</t>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Item: 78 - PASTA ABRASIVA (271377)</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Item: 89 - PINÇA ANATÔMICA (467747)</t>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Pasta diamantada para polimento de resina composta kit- acabamento / polimento / brilho.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Pinça cirúrgica 1, material:aço inoxidável, modelo:dissecação, tipo ponta:serrilhada, comprimento:16 cm, aplicação:hospitalar</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  Maquira</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Pasta abrasiva</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 20.0</t>
+          <t>Quantidade: 20</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 41.0</t>
+          <t>Valor Unitário: R$ 19,32</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 820.0</t>
+          <t>Valor Total: R$ 386,40</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Item: 90 - PINÇA CIRÚRGICA (467816)</t>
+          <t>Item: 87 - PINÇA CIRÚRGICA (467808)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Pinça cirúrgica 1, material:aço inoxidável, modelo:rochester pean, tipo ponta:curva, comprimento:20 cm, tipo cabo:com trava, aplicação:hospitalar</t>
+          <t>Pinça cirúrgica 1, material:aço inoxidável, modelo:kelly, tipo ponta: curva, comprimento:18 cm</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 20.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 70.0</t>
+          <t>Marca:  6B Invent Germany</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 1400.0</t>
+          <t>Modelo:  Pinça kelly</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Item: 91 - PINÇA ANATÔMICA (468060)</t>
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 20</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 44,90</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 898,00</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Pinça diethrich 16 ou 18cm. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Item: 88 - PINÇA CIRÚRGICA (601006)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 90.0</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 180.0</t>
+          <t>Pinça cirúrgica 1, material:aço inoxidável, tipo ponta:ponta curva, comprimento:16 cm, modelo 1:rankin-kelly</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Item: 98 - PINCEL ARTE PLÁSTICA (401475)</t>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  6B Invent Germany</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Pinça rankin kelly</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: design moderno e ergonômico. Cerdas finas e selecionadas. Evita a formação de pontas duplas. Proporcionam excelente limpeza e acabamento final sem danificar a resina. Modelo 4a. Padrão de referência:similar ou superior kota."</t>
+          <t>Quantidade: 50</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 41,00</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 2.050,00</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 5.0</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 53.15</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 265.75</t>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Item: 89 - PINÇA ANATÔMICA (467747)</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Item: 106 - EQUIPAMENTO ODONTOLÓGICO (447882)</t>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Pinça cirúrgica 1, material:aço inoxidável, modelo:dissecação, tipo ponta:serrilhada, comprimento:16 cm, aplicação:hospitalar</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Platisficadora à vacuo potência do motor: 1.400w.* Potência de aquecimento: 450w.* Potência de consumo: média 925w. * voltagens: 110v ou 220v (não é bivolt).* Dimensões da máquina sem embalagem (l x p x a): 275 x 260 x 310 mm. * dimensões da máquina com embalagem (l x p x a): 297 x 267 x 337 mm.* Peso sem embalagem: 4.600 kg. * peso com embalagem: 5.700 kg. * nível de ruído: motor 80/90 db a 0,50m.</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  6B Invent Germany</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Pinaç anatômica</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>Quantidade: 20</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 1435.0</t>
+          <t>Valor Unitário: R$ 41,00</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 2870.0</t>
+          <t>Valor Total: R$ 820,00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Item: 110 - EQUIPAMENTO ODONTOLÓGICO (410459)</t>
+          <t>Item: 90 - PINÇA CIRÚRGICA (467816)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Ponteira de fibra óptica para fotopolimerizador compatível com o aparelho emmiter g, da schuster</t>
+          <t>Pinça cirúrgica 1, material:aço inoxidável, modelo:rochester pean, tipo ponta:curva, comprimento:20 cm, tipo cabo:com trava, aplicação:hospitalar</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 4.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 625.0</t>
+          <t>Marca:  6B Invent Germany</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 2500.0</t>
+          <t>Modelo:  Pinça Rochester Pean</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Item: 125 - RÉGUA - USO ODONTOLÓGICO (418849)</t>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 20</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 70,00</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 1.400,00</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Régua - uso odontológico, modelo endodôntica, material aço inoxidável, tipo milimetrada, característica adicional simples, tipo uso autoclavável</t>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Item: 91 - PINÇA ANATÔMICA (468060)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 10.0</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 13.0</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 130.0</t>
+          <t>Pinça diethrich 16 ou 18cm. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Item: 135 - RESINA COMPOSTA (419656)</t>
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  6B Invent Germany</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Pinça Dietrich</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Resina fluída bis-gma, tegdma, bis-ema, polímero dimetacrilato. Carga de nanopartículas de sílica não-aglomeradas, nanopartículas de zircônia não-aglomeradas, nanoaglomerados de zircônia/sílica com 65% em péso e 55% em volume. Radiopaco. Apresentação: seringas com 2g, na cor a2 com ponteiras de aplicação.</t>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 90,00</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 180,00</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 200.0</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 20.0</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 4000.0</t>
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Item: 98 - PINCEL ARTE PLÁSTICA (401475)</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Item: 144 - SERINGA (413354)</t>
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>design moderno e ergonômico. Cerdas finas e selecionadas. Evita a formação de pontas duplas. Proporcionam excelente limpeza e acabamento final sem danificar a resina. Modelo 4a. Padrão de referência:similar ou superior kota."</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Seringa carpule em aço inox, usado para a realização de técnicas de anestesia local em odontologia e agulhas descartável longa ou curta. Esterilização por calor seco (autoclave). Projetada para qualquer tubete, padronizado, de anestésico. Com seguro dispositivo de refluxo do tipo pino de pressão. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  Kota</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Pincel</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 10.0</t>
+          <t>Quantidade: 5</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 48.0</t>
+          <t>Valor Unitário: R$ 53,15</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 480.0</t>
+          <t>Valor Total: R$ 265,75</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Item: 146 - PASTA MOLDAGEM (454436)</t>
+          <t>Item: 106 - EQUIPAMENTO ODONTOLÓGICO (447882)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Silicona para laboratório pote 900 gr</t>
+          <t>Platisficadora à vacuo potência do motor: 1.400w.* Potência de aquecimento: 450w.* Potência de consumo: média 925w. * voltagens: 110v ou 220v (não é bivolt).* Dimensões da máquina sem embalagem (l x p x a): 275 x 260 x 310 mm. * dimensões da máquina com embalagem (l x p x a): 297 x 267 x 337 mm.* Peso sem embalagem: 4.600 kg. * peso com embalagem: 5.700 kg. * nível de ruído: motor 80/90 db a 0,50m.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 6.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 175.0</t>
+          <t>Marca:  Essence Dental</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 1050.0</t>
+          <t>Modelo:  Evolution</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Item: 147 - DESCOLADOR (413450)</t>
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 1.435,00</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 2.870,00</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>Descrição Detalhada: Sindesmótomo. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Item: 110 - EQUIPAMENTO ODONTOLÓGICO (410459)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 9.7</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 19.4</t>
+          <t>Ponteira de fibra óptica para fotopolimerizador compatível com o aparelho emmiter g, da schuster</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Item: 149 - ÓLEO VEGETAL (433095)</t>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  Schuster</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Emitter G</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Solvente de guta percha, citrol, composto de terpeno de laranja, óleo essencial, volátil, atóxico ao profissional e ao paciente, inócuo aos tecidos adjacentes e ao dente. Frasco com 20 ml.</t>
+          <t>Quantidade: 4</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 625,00</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 2.500,00</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade: 5.0</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>Valor Unitário: 12.5</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>Valor Total: 62.5</t>
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Item: 125 - RÉGUA - USO ODONTOLÓGICO (418849)</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Item: 150 - SONDA ODONTOLÓGICA (425231)</t>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Régua - uso odontológico, modelo endodôntica, material aço inoxidável, tipo milimetrada, característica adicional simples, tipo uso autoclavável</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Sonda exploradora dupla nº 5 produzida em aço inoxidável (aisi 420), em perfil octogonal com arestas bem definidas de diâmetro 4,5 mm e serrilhado paralelo (biossegurança) no cabo que contribui para maior segurança e eficiência na limpeza e no manuseio; apresentar face lisa onde é feita a gravação (à laser) com a identificação do fabricante, nomenclatura do produto e um código que permite a identificação completa para a rastreabilidade do lote; podem ser personalizados com nomes e/ou logotipos; embalagem plástica individual, com uma etiqueta que identifica o produto, a referência, a data de fabricação , a validade que é de dez anos e o número de registro na anvisa. Qualidade igual ou superior a duflex, quinelato ou hu-friedy.</t>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  MK Life</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Régua odonto</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 7.0</t>
+          <t>Quantidade: 10</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 10.9</t>
+          <t>Valor Unitário: R$ 13,00</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 76.3</t>
+          <t>Valor Total: R$ 130,00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Item: 161 - TESOURA INSTRUMENTAL (471589)</t>
+          <t>Item: 135 - RESINA COMPOSTA (419656)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Tesoura, material:aço inoxidável, comprimento:20 cm, tipo:lister</t>
+          <t>Resina fluída bis-gma, tegdma, bis-ema, polímero dimetacrilato. Carga de nanopartículas de sílica não-aglomeradas, nanopartículas de zircônia não-aglomeradas, nanoaglomerados de zircônia/sílica com 65% em péso e 55% em volume. Radiopaco. Apresentação: seringas com 2g, na cor a2 com ponteiras de aplicação.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 20.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 53.0</t>
+          <t>Marca:  Maquira</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 1060.0</t>
+          <t>Modelo:  Applic</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 200</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 20,00</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 4.000,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Item: 144 - SERINGA (413354)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Seringa carpule em aço inox, usado para a realização de técnicas de anestesia local em odontologia e agulhas descartável longa ou curta. Esterilização por calor seco (autoclave). Projetada para qualquer tubete, padronizado, de anestésico. Com seguro dispositivo de refluxo do tipo pino de pressão. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  Cassiflex</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Seringa carpule</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 10</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 48,00</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 480,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Item: 146 - PASTA MOLDAGEM (454436)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Silicona para laboratório pote 900 gr</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>UF: Pote 1,00 KG</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  Yller</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Silicone</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 6</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 175,00</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 1.050,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Item: 147 - DESCOLADOR (413450)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Sindesmótomo. Produzido em aço inox. Embalagem com dados de identificação do produto, marca do fabricante e registro junto a anvisa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  Golgran</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Sindesmótomo</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 9,70</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 19,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Item: 149 - ÓLEO VEGETAL (433095)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Solvente de guta percha, citrol, composto de terpeno de laranja, óleo essencial, volátil, atóxico ao profissional e ao paciente, inócuo aos tecidos adjacentes e ao dente. Frasco com 20 ml.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>UF: Frasco 30,00 ML</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  Maquira</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Óleo de laranja</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 5</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 12,50</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 62,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Item: 150 - SONDA ODONTOLÓGICA (425231)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Sonda exploradora dupla nº 5 produzida em aço inoxidável (aisi 420), em perfil octogonal com arestas bem definidas de diâmetro 4,5 mm e serrilhado paralelo (biossegurança) no cabo que contribui para maior segurança e eficiência na limpeza e no manuseio; apresentar face lisa onde é feita a gravação (à laser) com a identificação do fabricante, nomenclatura do produto e um código que permite a identificação completa para a rastreabilidade do lote; podem ser personalizados com nomes e/ou logotipos; embalagem plástica individual, com uma etiqueta que identifica o produto, a referência, a data de fabricação , a validade que é de dez anos e o número de registro na anvisa. Qualidade igual ou superior a duflex, quinelato ou hu-friedy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  Golgran</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Espátula odonto</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 7</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 10,90</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 76,30</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>Item: 161 - TESOURA INSTRUMENTAL (471589)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Tesoura, material:aço inoxidável, comprimento:20 cm, tipo:lister</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>UF: Unidade</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Marca:  6B Invent Germany</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>Modelo:  Tesoura lister</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 20</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 53,00</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 1.060,00</t>
         </is>
       </c>
     </row>
@@ -1215,54 +1640,54 @@
   <mergeCells count="50">
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A66:C66"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A89:C89"/>
     <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A57:C57"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A85:C85"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A97:C97"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A81:C81"/>
     <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A52:C52"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A93:C93"/>
     <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A77:C77"/>
     <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A59:C59"/>
     <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A98:C98"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A94:C94"/>
     <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A69:C69"/>
     <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A54:C54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/relatorio/PE 90004-2024/ODONTOMED_CANAA_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/ODONTOMED_CANAA_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 13 - FOGÃO ELÉTRICO (373182)</t>
+          <t>Item 13 - FOGÃO ELÉTRICO (373182)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 36 - INDICADOR QUÍMICO (332343)</t>
+          <t>Item 36 - INDICADOR QUÍMICO (332343)</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Item: 39 - PINÇA ODONTOLÓGICA (413334)</t>
+          <t>Item 39 - PINÇA ODONTOLÓGICA (413334)</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 54 - RESINA ACRÍLICA USO ODONTOLÓGICO (433636)</t>
+          <t>Item 54 - RESINA ACRÍLICA USO ODONTOLÓGICO (433636)</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Item: 56 - PEÇA , ACESSÓRIO ILUMINAÇÃO (479471)</t>
+          <t>Item 56 - PEÇA , ACESSÓRIO ILUMINAÇÃO (479471)</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Item: 66 - EQUIPAMENTO ODONTOLÓGICO (413691)</t>
+          <t>Item 66 - EQUIPAMENTO ODONTOLÓGICO (413691)</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Item: 68 - TORNO - USO ODONTOLOGICO (245848)</t>
+          <t>Item 68 - TORNO - USO ODONTOLOGICO (245848)</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Item: 70 - MUFLA ODONTOLÓGICA (446569)</t>
+          <t>Item 70 - MUFLA ODONTOLÓGICA (446569)</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Item: 78 - PASTA ABRASIVA (271377)</t>
+          <t>Item 78 - PASTA ABRASIVA (271377)</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Item: 87 - PINÇA CIRÚRGICA (467808)</t>
+          <t>Item 87 - PINÇA CIRÚRGICA (467808)</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Item: 88 - PINÇA CIRÚRGICA (601006)</t>
+          <t>Item 88 - PINÇA CIRÚRGICA (601006)</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Item: 89 - PINÇA ANATÔMICA (467747)</t>
+          <t>Item 89 - PINÇA ANATÔMICA (467747)</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Item: 90 - PINÇA CIRÚRGICA (467816)</t>
+          <t>Item 90 - PINÇA CIRÚRGICA (467816)</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Item: 91 - PINÇA ANATÔMICA (468060)</t>
+          <t>Item 91 - PINÇA ANATÔMICA (468060)</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Item: 98 - PINCEL ARTE PLÁSTICA (401475)</t>
+          <t>Item 98 - PINCEL ARTE PLÁSTICA (401475)</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Item: 106 - EQUIPAMENTO ODONTOLÓGICO (447882)</t>
+          <t>Item 106 - EQUIPAMENTO ODONTOLÓGICO (447882)</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Item: 110 - EQUIPAMENTO ODONTOLÓGICO (410459)</t>
+          <t>Item 110 - EQUIPAMENTO ODONTOLÓGICO (410459)</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Item: 125 - RÉGUA - USO ODONTOLÓGICO (418849)</t>
+          <t>Item 125 - RÉGUA - USO ODONTOLÓGICO (418849)</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Item: 135 - RESINA COMPOSTA (419656)</t>
+          <t>Item 135 - RESINA COMPOSTA (419656)</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Item: 144 - SERINGA (413354)</t>
+          <t>Item 144 - SERINGA (413354)</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Item: 146 - PASTA MOLDAGEM (454436)</t>
+          <t>Item 146 - PASTA MOLDAGEM (454436)</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Item: 147 - DESCOLADOR (413450)</t>
+          <t>Item 147 - DESCOLADOR (413450)</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Item: 149 - ÓLEO VEGETAL (433095)</t>
+          <t>Item 149 - ÓLEO VEGETAL (433095)</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Item: 150 - SONDA ODONTOLÓGICA (425231)</t>
+          <t>Item 150 - SONDA ODONTOLÓGICA (425231)</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Item: 161 - TESOURA INSTRUMENTAL (471589)</t>
+          <t>Item 161 - TESOURA INSTRUMENTAL (471589)</t>
         </is>
       </c>
     </row>
